--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CucumberLatest\automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EC6676-AF19-4EFF-9AB3-69CD6E4A7D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F2A7982-9543-49D8-9E7A-49FE8A2BE4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sample" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
     <sheet name="FaceBook" sheetId="4" r:id="rId4"/>
+    <sheet name="Test_Data" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -136,6 +133,30 @@
   </si>
   <si>
     <t>Dagdubhau@123</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Dada</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -705,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FFBDCB-3967-4DF9-B4C4-E9FA81DED6B4}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -814,4 +835,92 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9A9DDC-FAE5-48F5-8466-A70DEDF258E1}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>9049659505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>9049659505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>9049659505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>9767211053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>